--- a/medicine/Handicap/Catalina_Devandas-Aguilar/Catalina_Devandas-Aguilar.xlsx
+++ b/medicine/Handicap/Catalina_Devandas-Aguilar/Catalina_Devandas-Aguilar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catalina Devandas Aguilar est une avocate costaricaine et ancienne rapporteure spéciale des Nations unies sur les droits des personnes handicapées. Elle occupe ce poste depuis sa création en 2014 à 2020[1] pour ensuite occuper le poste d’ambassadrice du Costa Rica auprès de l’Onu[2]. Elle a travaillé auparavant pour la Banque mondiale et a participé à l'établissement de la Convention relative aux droits des personnes handicapées avec le Secrétariat des Nations unies. Elle souffre de spina bifida et utilise un fauteuil roulant[1],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catalina Devandas Aguilar est une avocate costaricaine et ancienne rapporteure spéciale des Nations unies sur les droits des personnes handicapées. Elle occupe ce poste depuis sa création en 2014 à 2020 pour ensuite occuper le poste d’ambassadrice du Costa Rica auprès de l’Onu. Elle a travaillé auparavant pour la Banque mondiale et a participé à l'établissement de la Convention relative aux droits des personnes handicapées avec le Secrétariat des Nations unies. Elle souffre de spina bifida et utilise un fauteuil roulant,.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catalina Devandas Aguilar a commencé sa carrière d'avocate en 1993 et a travaillé comme juriste jusqu'en 1999[3].
-Elle a déjà été consultante pour la Banque mondiale et a fait partie du Secrétariat des Nations unies qui a établi la Convention relative aux droits des personnes handicapées. En 2009, Catalina Devandas Aguilar a commencé à travailler pour le Disability Rights Advocacy Fund et le Disability Rights Fund[4]. En 2014, elle a été nommée première Rapporteure spéciale des Nations Unies sur les droits des personnes handicapées[1].
-Pendant son mandat de rapporteur spécial, elle a voyagé dans de nombreux pays pour déterminer la situation des personnes handicapées. En 2016, Catalina Devandas Aguilar a analysé la situation des personnes handicapées en Zambie[5] Après sa visite, elle a recommandé à la Zambie d'investir dans les droits des personnes handicapées et de prévenir la violence contre les personnes handicapées[6].
-En 2017, elle est devenue le premier membre des Nations unies à se voir accorder une visite en Corée du Nord[7]. Après son voyage en Corée du Nord, elle a signalé qu'elle avait été empêchée de rencontrer plusieurs ministères nord-coréens[8]. Ses recommandations à la Corée du Nord comprenaient l'arrêt du langage discriminatoire contre les Nord-Coréens handicapés et la création de méthodes plus accessibles pour les Nord-Coréens sourds et aveugles[9].
-Elle a également fait partie des experts mandatés par l'Organisation mondiale de la santé pour la formation sur les droits humains en santé mentale, Quality Rights 2019[10].
-Depuis le 15 octobre 2020, elle est ambassadrice du Costa Rica auprès des Nations unies[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catalina Devandas Aguilar a commencé sa carrière d'avocate en 1993 et a travaillé comme juriste jusqu'en 1999.
+Elle a déjà été consultante pour la Banque mondiale et a fait partie du Secrétariat des Nations unies qui a établi la Convention relative aux droits des personnes handicapées. En 2009, Catalina Devandas Aguilar a commencé à travailler pour le Disability Rights Advocacy Fund et le Disability Rights Fund. En 2014, elle a été nommée première Rapporteure spéciale des Nations Unies sur les droits des personnes handicapées.
+Pendant son mandat de rapporteur spécial, elle a voyagé dans de nombreux pays pour déterminer la situation des personnes handicapées. En 2016, Catalina Devandas Aguilar a analysé la situation des personnes handicapées en Zambie Après sa visite, elle a recommandé à la Zambie d'investir dans les droits des personnes handicapées et de prévenir la violence contre les personnes handicapées.
+En 2017, elle est devenue le premier membre des Nations unies à se voir accorder une visite en Corée du Nord. Après son voyage en Corée du Nord, elle a signalé qu'elle avait été empêchée de rencontrer plusieurs ministères nord-coréens. Ses recommandations à la Corée du Nord comprenaient l'arrêt du langage discriminatoire contre les Nord-Coréens handicapés et la création de méthodes plus accessibles pour les Nord-Coréens sourds et aveugles.
+Elle a également fait partie des experts mandatés par l'Organisation mondiale de la santé pour la formation sur les droits humains en santé mentale, Quality Rights 2019.
+Depuis le 15 octobre 2020, elle est ambassadrice du Costa Rica auprès des Nations unies.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Visite en France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du 3 au 17 octobre 2017, Devandas-Aguilar a effectué une visite en France métropolitaine et déposé un rapport[11] devant l'Organisation des Nations-Unies, relativement à la situation en rapport avec le respect des droits humains.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du 3 au 17 octobre 2017, Devandas-Aguilar a effectué une visite en France métropolitaine et déposé un rapport devant l'Organisation des Nations-Unies, relativement à la situation en rapport avec le respect des droits humains.
 </t>
         </is>
       </c>
